--- a/Manufacturing/DetailedReport/GanttChartDetailedReport.xlsx
+++ b/Manufacturing/DetailedReport/GanttChartDetailedReport.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>ФАКИшники</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Разработка ПО для ПК</t>
   </si>
   <si>
-    <t>Разработка с-мы контроля/сброса груза</t>
-  </si>
-  <si>
     <t>Изготовление прототипа</t>
   </si>
   <si>
@@ -156,6 +153,12 @@
   </si>
   <si>
     <t>Матвей</t>
+  </si>
+  <si>
+    <t>Исследование и дизан системы спасения ЛА</t>
+  </si>
+  <si>
+    <t>Разработка системы контроля/сброса груза</t>
   </si>
 </sst>
 </file>
@@ -390,24 +393,6 @@
   </cellStyleXfs>
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -475,9 +460,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -508,8 +490,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1468,20 +1471,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AD34"/>
+  <dimension ref="A2:AD35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
+      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" customWidth="1"/>
     <col min="7" max="7" width="9.77734375" customWidth="1"/>
     <col min="8" max="8" width="9.5546875" customWidth="1"/>
@@ -1502,1195 +1505,1233 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="46"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="4">
         <v>45383</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="4">
         <f ca="1">TODAY()</f>
-        <v>45431</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
+        <v>45432</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="7" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="H5" s="7"/>
+    </row>
+    <row r="7" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="8">
         <f>B3</f>
         <v>45383</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="8">
         <f t="shared" ref="H7:W7" si="0">G7+7</f>
         <v>45390</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="8">
         <f t="shared" si="0"/>
         <v>45397</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="8">
         <f t="shared" si="0"/>
         <v>45404</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="8">
         <f t="shared" si="0"/>
         <v>45411</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="8">
         <f t="shared" si="0"/>
         <v>45418</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="8">
         <f t="shared" si="0"/>
         <v>45425</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="8">
         <f t="shared" si="0"/>
         <v>45432</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="8">
         <f t="shared" si="0"/>
         <v>45439</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="8">
         <f t="shared" si="0"/>
         <v>45446</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="8">
         <f t="shared" si="0"/>
         <v>45453</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="8">
         <f t="shared" si="0"/>
         <v>45460</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="8">
         <f t="shared" si="0"/>
         <v>45467</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="8">
         <f t="shared" si="0"/>
         <v>45474</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="8">
         <f t="shared" si="0"/>
         <v>45481</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="8">
         <f t="shared" si="0"/>
         <v>45488</v>
       </c>
-      <c r="W7" s="14">
+      <c r="W7" s="8">
         <f t="shared" si="0"/>
         <v>45495</v>
       </c>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="51"/>
-    </row>
-    <row r="8" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="17">
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+    </row>
+    <row r="8" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="11">
         <v>1</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="11">
         <v>2</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="11">
         <v>3</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="11">
         <v>4</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="11">
         <v>5</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="11">
         <v>6</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="11">
         <v>7</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="11">
         <v>8</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="11">
         <v>9</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="11">
         <v>10</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="11">
         <v>11</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="11">
         <v>12</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="11">
         <v>13</v>
       </c>
-      <c r="T8" s="17">
+      <c r="T8" s="11">
         <v>14</v>
       </c>
-      <c r="U8" s="17">
+      <c r="U8" s="11">
         <v>15</v>
       </c>
-      <c r="V8" s="17">
+      <c r="V8" s="11">
         <v>16</v>
       </c>
-      <c r="W8" s="17">
+      <c r="W8" s="11">
         <v>17</v>
       </c>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52"/>
-    </row>
-    <row r="9" spans="1:30" s="15" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+    </row>
+    <row r="9" spans="1:30" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="19">
+      <c r="B9" s="51"/>
+      <c r="C9" s="13">
         <v>45383</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="13">
         <v>45387</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="14">
         <f>D9-C9</f>
         <v>4</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
     </row>
     <row r="10" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="22">
+        <v>45383</v>
+      </c>
+      <c r="D10" s="22">
+        <v>45387</v>
+      </c>
+      <c r="E10" s="23">
+        <f t="shared" ref="E10:E35" si="1">IF(C10="","",D10-C10)</f>
+        <v>4</v>
+      </c>
+      <c r="F10" s="24">
+        <v>1</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+    </row>
+    <row r="11" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C11" s="22">
         <v>45383</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D11" s="22">
         <v>45387</v>
       </c>
-      <c r="E10" s="29">
-        <f t="shared" ref="E10:E34" si="1">IF(C10="","",D10-C10)</f>
-        <v>4</v>
-      </c>
-      <c r="F10" s="30">
-        <v>1</v>
-      </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-    </row>
-    <row r="11" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="28">
-        <v>45383</v>
-      </c>
-      <c r="D11" s="28">
-        <v>45387</v>
-      </c>
-      <c r="E11" s="29">
+      <c r="E11" s="23">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="24">
         <v>1</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
     </row>
     <row r="12" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="22">
         <v>45383</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="22">
         <v>45387</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="23">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="24">
         <v>1</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
     </row>
     <row r="13" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="B13" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="22">
         <v>45383</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="22">
         <v>45387</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="23">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="24">
         <v>1</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
     </row>
     <row r="14" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="28">
+      <c r="B14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="22">
         <v>45383</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="22">
         <v>45387</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="23">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="24">
         <v>1</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-    </row>
-    <row r="15" spans="1:30" s="15" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+    </row>
+    <row r="15" spans="1:30" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="32">
+      <c r="B15" s="49"/>
+      <c r="C15" s="26">
         <v>45387</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="26">
         <v>45418</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="27">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
     </row>
     <row r="16" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="22">
         <v>45387</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="22">
         <v>45418</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="23">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="24">
         <v>1</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
     </row>
     <row r="17" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="38">
         <v>45388</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="38">
         <v>45403</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="23">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="24">
         <v>1</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
     </row>
     <row r="18" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="45">
+      <c r="B18" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="38">
         <v>45389</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="38">
         <v>45404</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="23">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="24">
         <v>1</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
     </row>
     <row r="19" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="38">
         <v>45390</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="38">
         <v>45405</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="23">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="24">
         <v>1</v>
       </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
     </row>
     <row r="20" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="38">
         <v>45391</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="38">
         <v>45417</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="23">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="24">
         <v>1</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
     </row>
     <row r="21" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="45">
+      <c r="B21" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="38">
         <v>45392</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="38">
         <v>45417</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="23">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="24">
         <f>100%</f>
         <v>1</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
     </row>
     <row r="22" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="45">
+      <c r="B22" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="38">
         <v>45396</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="38">
         <v>45418</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="23">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="24">
         <v>1</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-    </row>
-    <row r="23" spans="1:23" s="15" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+    </row>
+    <row r="23" spans="1:23" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="46">
+      <c r="B23" s="53"/>
+      <c r="C23" s="39">
         <v>45418</v>
       </c>
-      <c r="D23" s="46">
+      <c r="D23" s="39">
         <v>45487</v>
       </c>
-      <c r="E23" s="50">
+      <c r="E23" s="43">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
     </row>
     <row r="24" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="47">
+      <c r="B24" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="40">
         <v>45418</v>
       </c>
-      <c r="D24" s="47">
+      <c r="D24" s="40">
         <v>45424</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="23">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="37">
         <v>0</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-    </row>
-    <row r="25" spans="1:23" s="13" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="47">
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+    </row>
+    <row r="25" spans="1:23" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="40">
         <v>45418</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="40">
         <v>45444</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="23">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="37">
         <v>0</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
     </row>
     <row r="26" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="45">
+      <c r="B26" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="38">
         <v>45453</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="38">
         <v>45474</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="23">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="24">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
     </row>
     <row r="27" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="45">
+      <c r="A27" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="38">
         <v>45444</v>
       </c>
-      <c r="D27" s="45">
+      <c r="D27" s="38">
         <v>45457</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="23">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="24">
         <v>0</v>
       </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-    </row>
-    <row r="28" spans="1:23" s="13" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="45">
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+    </row>
+    <row r="28" spans="1:23" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="38">
         <v>45453</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="38">
         <v>45483</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="23">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="24">
         <v>0</v>
       </c>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-    </row>
-    <row r="29" spans="1:23" s="13" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="45">
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+    </row>
+    <row r="29" spans="1:23" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="38">
         <v>45436</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="38">
         <v>45463</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="23">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="24">
         <v>0</v>
       </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-    </row>
-    <row r="30" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="45">
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+    </row>
+    <row r="30" spans="1:23" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="38">
         <v>45436</v>
       </c>
-      <c r="D30" s="45">
+      <c r="D30" s="38">
         <v>45458</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="23">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="24">
         <v>0</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
     </row>
     <row r="31" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="27" t="s">
+      <c r="A31" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="45">
+      <c r="C31" s="38">
+        <v>45436</v>
+      </c>
+      <c r="D31" s="38">
+        <v>45458</v>
+      </c>
+      <c r="E31" s="23">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="F31" s="24">
+        <v>0</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+    </row>
+    <row r="32" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="38">
         <v>45446</v>
       </c>
-      <c r="D31" s="45">
+      <c r="D32" s="38">
         <v>45481</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E32" s="23">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F32" s="24">
         <v>0</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-    </row>
-    <row r="32" spans="1:23" s="15" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="48">
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+    </row>
+    <row r="33" spans="1:23" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="49"/>
+      <c r="C33" s="41">
         <v>45453</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D33" s="41">
         <v>45501</v>
       </c>
-      <c r="E32" s="50">
+      <c r="E33" s="43">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="39"/>
-    </row>
-    <row r="33" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="27" t="s">
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="33"/>
+    </row>
+    <row r="34" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="49">
+      <c r="C34" s="42">
         <v>45458</v>
       </c>
-      <c r="D33" s="45">
+      <c r="D34" s="38">
         <v>45468</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E34" s="23">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F33" s="30">
+      <c r="F34" s="24">
         <v>0</v>
       </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-    </row>
-    <row r="34" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="27" t="s">
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+    </row>
+    <row r="35" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="45">
+      <c r="C35" s="38">
         <v>45481</v>
       </c>
-      <c r="D34" s="45">
+      <c r="D35" s="38">
         <v>45495</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E35" s="23">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F35" s="24">
         <v>0</v>
       </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A15:B15"/>
@@ -2707,12 +2748,12 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
   </mergeCells>
-  <conditionalFormatting sqref="G7:W14 G16:W22 G15 M15:W15 G23:K23 V23:W23 G33:W34 G32:O32 G24:W31">
+  <conditionalFormatting sqref="G7:W14 G16:W22 G15 M15:W15 G23:K23 V23:W23 G34:W35 G33:O33 G24:W32">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>G$8=$B$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10:W14 G16:W22 G15 M15:W15 G23:K23 V23:W23 G24:W31 G32:O32 G33:W34">
+  <conditionalFormatting sqref="G10:W14 G16:W22 G15 M15:W15 G23:K23 V23:W23 G24:W32 G33:O33 G34:W35">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>AND(G$7&gt;=$C10, G$7&lt;=$C10+$E10*$F10 - 1)</formula>
     </cfRule>
@@ -2720,7 +2761,7 @@
       <formula>AND(G$7 &gt;= $C10, G$7 &lt;= $D10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:F34">
+  <conditionalFormatting sqref="F10:F35">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2753,7 +2794,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F10:F34</xm:sqref>
+          <xm:sqref>F10:F35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
